--- a/individual_results/avey/422.xlsx
+++ b/individual_results/avey/422.xlsx
@@ -555,7 +555,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D2" t="n">
         <v>0.6</v>
@@ -564,7 +564,7 @@
         <v>0.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0.375</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0.6666666666666666</v>
@@ -628,7 +628,7 @@
         <v>0.25</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D3" t="n">
         <v>0.75</v>
@@ -637,7 +637,7 @@
         <v>0.75</v>
       </c>
       <c r="F3" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0.25</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R3" t="n">
         <v>0.25</v>
@@ -682,7 +682,7 @@
         <v>0.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="V3" t="n">
         <v>0.5</v>
@@ -701,7 +701,7 @@
         <v>0.2857142857142858</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D4" t="n">
         <v>0.6666666666666665</v>
@@ -710,7 +710,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
@@ -728,7 +728,9 @@
       <c r="L4" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0.25</v>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
         <v>0.2</v>
@@ -737,7 +739,7 @@
         <v>0.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="R4" t="n">
         <v>0.4</v>
@@ -749,7 +751,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V4" t="n">
         <v>0.5714285714285715</v>
@@ -768,7 +770,7 @@
         <v>0.2631578947368421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D5" t="n">
         <v>0.7142857142857143</v>
@@ -777,7 +779,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
@@ -795,7 +797,9 @@
       <c r="L5" t="n">
         <v>0.2777777777777778</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>0.25</v>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
         <v>0.2272727272727273</v>
@@ -804,7 +808,7 @@
         <v>0.625</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="R5" t="n">
         <v>0.2941176470588235</v>
@@ -816,7 +820,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V5" t="n">
         <v>0.5263157894736842</v>
@@ -835,7 +839,7 @@
         <v>0.04684458432433119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2114909268747692</v>
+        <v>0.2410465689186769</v>
       </c>
       <c r="D6" t="n">
         <v>0.9271494030236723</v>
@@ -844,7 +848,7 @@
         <v>0.9700828521958667</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9798251356588182</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -865,7 +869,7 @@
         <v>0.04684458432433119</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.04684458432433119</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -877,7 +881,7 @@
         <v>0.6069838582768478</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3513343824324839</v>
+        <v>0.3981789667568151</v>
       </c>
       <c r="R6" t="n">
         <v>0.7026687648649679</v>
@@ -889,7 +893,7 @@
         <v>0.4901792149829458</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4433346306586146</v>
+        <v>0.4901792149829458</v>
       </c>
       <c r="V6" t="n">
         <v>0.347423247280347</v>
